--- a/html-crud-template/usuarios.xlsx
+++ b/html-crud-template/usuarios.xlsx
@@ -15,7 +15,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>user Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
   <si>
     <t>octavio</t>
   </si>
@@ -26,10 +38,16 @@
     <t>amador</t>
   </si>
   <si>
+    <t>$2y$10$FCn/7vrfaSUfwv9N1OnVOO.yoyLLrvQ1BUcA5tKoHzlXW5In6MaT2</t>
+  </si>
+  <si>
     <t>Octavio Godoy</t>
   </si>
   <si>
     <t>octopus</t>
+  </si>
+  <si>
+    <t>$2y$10$opqvxNHG0C1S9ffHsnCpkOeD/0PXvN86rd.g9vf4qaMENdGDWKa3u</t>
   </si>
 </sst>
 </file>
@@ -368,7 +386,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,18 +394,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/html-crud-template/usuarios.xlsx
+++ b/html-crud-template/usuarios.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
   <si>
     <t>octavio</t>
@@ -407,22 +410,25 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -430,16 +436,16 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
